--- a/Blatt6WR.xlsx
+++ b/Blatt6WR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20EFC4-8122-4570-B573-69CAA8066AA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56304B59-A68A-4A2E-849D-F96ACE359749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{53054765-85A8-4368-9BDE-6C393312C2F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>level dt</t>
   </si>
@@ -82,12 +82,18 @@
   <si>
     <t>div at t = 2,5 bei level 6</t>
   </si>
+  <si>
+    <t>rk order = 4</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +136,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -147,11 +159,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,6 +372,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -479,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985FD5F7-A709-4BEE-9866-830CABC279BF}">
-  <dimension ref="C1:AD19"/>
+  <dimension ref="C1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1266,6 +1499,358 @@
         <v>14.478400000000001</v>
       </c>
     </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="30">
+        <f>O24/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30">
+        <f t="shared" ref="R24:U24" si="0">Q24/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T24" s="29"/>
+      <c r="U24" s="28">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="V24" s="29"/>
+    </row>
+    <row r="25" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N25" s="24"/>
+      <c r="O25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="N26" s="25">
+        <v>3</v>
+      </c>
+      <c r="O26" s="14">
+        <v>6.25</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0.33407999999999999</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0.33340799999999998</v>
+      </c>
+      <c r="S26" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0.33340799999999998</v>
+      </c>
+      <c r="U26" s="14">
+        <v>6.25</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0.33340799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="N27" s="25">
+        <v>4</v>
+      </c>
+      <c r="O27" s="14">
+        <v>9.375</v>
+      </c>
+      <c r="P27" s="14">
+        <v>369.80799999999999</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>9.375</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0.92743100000000001</v>
+      </c>
+      <c r="S27" s="13">
+        <v>9.375</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0.92743100000000001</v>
+      </c>
+      <c r="U27" s="14">
+        <v>9.375</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0.92743100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="N28" s="25">
+        <v>5</v>
+      </c>
+      <c r="O28" s="14">
+        <v>10.9375</v>
+      </c>
+      <c r="P28" s="16">
+        <v>6269000000000000</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>10.9375</v>
+      </c>
+      <c r="R28" s="32">
+        <v>59000000000000</v>
+      </c>
+      <c r="S28" s="13">
+        <v>10.9375</v>
+      </c>
+      <c r="T28" s="15">
+        <v>1.85399</v>
+      </c>
+      <c r="U28" s="14">
+        <v>10.9375</v>
+      </c>
+      <c r="V28" s="15">
+        <v>1.85399</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N29" s="26">
+        <v>6</v>
+      </c>
+      <c r="O29" s="18">
+        <v>10.1562</v>
+      </c>
+      <c r="P29" s="19">
+        <v>4.9E+17</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>10.1562</v>
+      </c>
+      <c r="R29" s="31">
+        <v>2380000000000000</v>
+      </c>
+      <c r="S29" s="17">
+        <v>10.1562</v>
+      </c>
+      <c r="T29" s="31">
+        <v>70000000000000</v>
+      </c>
+      <c r="U29" s="18">
+        <v>10.1562</v>
+      </c>
+      <c r="V29" s="20">
+        <v>2.4218999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="O32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N34" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="30">
+        <f>O34/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="R34" s="29"/>
+      <c r="S34" s="28">
+        <f t="shared" ref="S34" si="1">Q34/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T34" s="29"/>
+      <c r="U34" s="28">
+        <f t="shared" ref="U34" si="2">S34/2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="V34" s="29"/>
+    </row>
+    <row r="35" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N35" s="24"/>
+      <c r="O35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="14:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="N36" s="25">
+        <v>3</v>
+      </c>
+      <c r="O36" s="14">
+        <v>6.25</v>
+      </c>
+      <c r="P36" s="14">
+        <v>0.33370899999999998</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0.33348499999999998</v>
+      </c>
+      <c r="S36" s="14">
+        <v>6.25</v>
+      </c>
+      <c r="T36" s="14">
+        <v>0.33428999999999998</v>
+      </c>
+      <c r="U36" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0.33341399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N37" s="25">
+        <v>4</v>
+      </c>
+      <c r="O37" s="14">
+        <v>9.375</v>
+      </c>
+      <c r="P37" s="14">
+        <v>0.929315</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>9.375</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0.92790600000000001</v>
+      </c>
+      <c r="S37" s="14">
+        <v>9.375</v>
+      </c>
+      <c r="T37" s="14">
+        <v>0.92755100000000001</v>
+      </c>
+      <c r="U37" s="13">
+        <v>9.375</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0.92746399999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N38" s="25">
+        <v>5</v>
+      </c>
+      <c r="O38" s="14">
+        <v>10.9375</v>
+      </c>
+      <c r="P38" s="35">
+        <v>1.8627199999999999</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>10.9375</v>
+      </c>
+      <c r="R38" s="36">
+        <v>1.8561700000000001</v>
+      </c>
+      <c r="S38" s="35">
+        <v>10.9375</v>
+      </c>
+      <c r="T38" s="35">
+        <v>1.8545499999999999</v>
+      </c>
+      <c r="U38" s="13">
+        <v>10.9375</v>
+      </c>
+      <c r="V38" s="15">
+        <v>1.8541399999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N39" s="26">
+        <v>6</v>
+      </c>
+      <c r="O39" s="18">
+        <v>10.1562</v>
+      </c>
+      <c r="P39" s="37">
+        <v>2.44441</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>10.1562</v>
+      </c>
+      <c r="R39" s="38">
+        <v>2.4275500000000001</v>
+      </c>
+      <c r="S39" s="37">
+        <v>10.1562</v>
+      </c>
+      <c r="T39" s="37">
+        <v>2.42333</v>
+      </c>
+      <c r="U39" s="17">
+        <v>10.1562</v>
+      </c>
+      <c r="V39" s="20">
+        <v>2.4222700000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Blatt6WR.xlsx
+++ b/Blatt6WR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56304B59-A68A-4A2E-849D-F96ACE359749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF7433-25A2-4F7B-B9D5-A11E85A824EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{53054765-85A8-4368-9BDE-6C393312C2F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>level dt</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>Energie</t>
+  </si>
+  <si>
+    <t>Outflow Sum</t>
+  </si>
+  <si>
+    <t>Level4dt0.125</t>
+  </si>
+  <si>
+    <t>OutflowSum</t>
+  </si>
+  <si>
+    <t>InflowSum</t>
+  </si>
+  <si>
+    <t>Out+In Sum</t>
+  </si>
+  <si>
+    <t>Level6dt0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Insg.</t>
+  </si>
+  <si>
+    <t>Level6dt0.125</t>
+  </si>
+  <si>
+    <t>rkorder -2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +428,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -712,15 +744,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985FD5F7-A709-4BEE-9866-830CABC279BF}">
-  <dimension ref="C1:AD39"/>
+  <dimension ref="C1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="11.921875" customWidth="1"/>
+    <col min="26" max="26" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:30" x14ac:dyDescent="0.4">
@@ -738,6 +772,16 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="39">
+        <v>5.6027792999999999</v>
+      </c>
+      <c r="T2">
+        <f xml:space="preserve"> -1.6241 -1.10905 - 0.754981 -0.532096 - 0.386182 - 0.286775 - 0.21685</f>
+        <v>-4.9100340000000005</v>
+      </c>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1337,7 +1381,7 @@
         <v>7.4703900000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>6</v>
       </c>
@@ -1393,7 +1437,7 @@
         <v>11.2629</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:43" x14ac:dyDescent="0.4">
       <c r="N18">
         <v>5</v>
       </c>
@@ -1446,7 +1490,7 @@
         <v>14.2439</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:43" x14ac:dyDescent="0.4">
       <c r="N19">
         <v>6</v>
       </c>
@@ -1499,7 +1543,7 @@
         <v>14.478400000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:43" x14ac:dyDescent="0.4">
       <c r="O22" t="s">
         <v>17</v>
       </c>
@@ -1507,8 +1551,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N24" s="27" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1566,7 @@
       </c>
       <c r="R24" s="29"/>
       <c r="S24" s="30">
-        <f t="shared" ref="R24:U24" si="0">Q24/2</f>
+        <f t="shared" ref="S24:U24" si="0">Q24/2</f>
         <v>6.25E-2</v>
       </c>
       <c r="T24" s="29"/>
@@ -1531,8 +1575,20 @@
         <v>3.125E-2</v>
       </c>
       <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N25" s="24"/>
       <c r="O25" s="22" t="s">
         <v>10</v>
@@ -1558,8 +1614,56 @@
       <c r="V25" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="Y25" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:43" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="N26" s="25">
         <v>3</v>
       </c>
@@ -1587,8 +1691,63 @@
       <c r="V26" s="15">
         <v>0.33340799999999998</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="Z26">
+        <f>0.000018295 + 0.00205088 + 0.0263376 + 0.123917 + 0.335444 + 0.651716 + 1.02401 + 1.39475 + 1.71871 + 1.9697 + 2.13855 + 2.22805 + 2.2479 + 2.21085</f>
+        <v>16.072003774999999</v>
+      </c>
+      <c r="AA26">
+        <f xml:space="preserve"> -0.66559 -0.835208 - 0.750137 - 0.620021 - 0.499154 - 0.398645 - 0.318049 - 0.2524215 - 0.203804 - 0.163948 - 0.132346 - 0.107198 - 0.0871077 -0.0709967</f>
+        <v>-5.1046259000000003</v>
+      </c>
+      <c r="AB26">
+        <f>Z26+AA26</f>
+        <v>10.967377874999999</v>
+      </c>
+      <c r="AC26">
+        <f>V7+AB26</f>
+        <v>22.230077874999999</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF26">
+        <f xml:space="preserve"> 0.00123278 + 0.0120654 + 0.201166 + 1.0643 + 2.62639 + 3.89814</f>
+        <v>7.80329418</v>
+      </c>
+      <c r="AG26">
+        <f xml:space="preserve"> -0.0322104 - 0.0115986 - 0.00333524 - 0.000935925 - 0.000263342 - 0.0000748056 -0.0000214859</f>
+        <v>-4.8439798499999999E-2</v>
+      </c>
+      <c r="AH26">
+        <f>AF26+AG26</f>
+        <v>7.7548543815000004</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>20.3125</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>14.4885</v>
+      </c>
+      <c r="AM26">
+        <f xml:space="preserve"> 0.000000252512 + 0.0000248932 + 0.000696453 + 0.00809206 + 0.0496971 + 0.190922 + 0.517424 + 1.07748 + 1.83197 + 2.6565 +3.39188 +3.90537</f>
+        <v>13.630056758712</v>
+      </c>
+      <c r="AN26">
+        <f xml:space="preserve"> -0.0227949 - 0.0303911 - 0.020325 -0.0116807 - 0.00638107 - 0.00341932 - 0.00181933 - 0.000966368 - 0.000513713 - 0.000273631 - 0.000146122 - 0.000078246 - 0.000042017 - 0.0000226245</f>
+        <v>-9.8854141499999992E-2</v>
+      </c>
+      <c r="AO26">
+        <f>AM26+AN26</f>
+        <v>13.531202617211999</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>20.3125</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>14.4885</v>
+      </c>
+    </row>
+    <row r="27" spans="3:43" x14ac:dyDescent="0.4">
       <c r="N27" s="25">
         <v>4</v>
       </c>
@@ -1617,7 +1776,7 @@
         <v>0.92743100000000001</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:43" x14ac:dyDescent="0.4">
       <c r="N28" s="25">
         <v>5</v>
       </c>
@@ -1645,8 +1804,12 @@
       <c r="V28" s="15">
         <v>1.85399</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AO28">
+        <f>AQ26+AO26</f>
+        <v>28.019702617211998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N29" s="26">
         <v>6</v>
       </c>
@@ -1674,8 +1837,15 @@
       <c r="V29" s="20">
         <v>2.4218999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="AH29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI29">
+        <f>AH26+AJ26</f>
+        <v>22.243354381500001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:43" x14ac:dyDescent="0.4">
       <c r="O32" t="s">
         <v>6</v>
       </c>
@@ -1853,5 +2023,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Blatt6WR.xlsx
+++ b/Blatt6WR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF7433-25A2-4F7B-B9D5-A11E85A824EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB9035-7BBE-4544-9F6B-2EEDB3B4D769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{53054765-85A8-4368-9BDE-6C393312C2F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>level dt</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>rkorder -2</t>
+  </si>
+  <si>
+    <t>Massetabellen</t>
+  </si>
+  <si>
+    <t>level3dt0,25</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +436,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -744,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985FD5F7-A709-4BEE-9866-830CABC279BF}">
-  <dimension ref="C1:AQ39"/>
+  <dimension ref="C1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1543,16 +1551,94 @@
         <v>14.478400000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:43" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O22" t="s">
         <v>17</v>
       </c>
       <c r="P22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="Z22">
+        <f xml:space="preserve"> 0.0560286 + 0.581638 + 1.40044 + 2.04235 + 2.36946 + 2.43284 + 2.32386</f>
+        <v>11.2066166</v>
+      </c>
+      <c r="AA22">
+        <f>4.10346 + 3.58076 + 3.12875 + 2.73096 + 2.36166 + 2.02015 + 1.7112</f>
+        <v>19.636940000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="30">
+        <f>D23/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
+        <f t="shared" ref="H23:H24" si="0">F23/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="28">
+        <f t="shared" ref="J23:J24" si="1">H23/2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K23" s="29"/>
+    </row>
     <row r="24" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="24"/>
+      <c r="D24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="N24" s="27" t="s">
         <v>0</v>
       </c>
@@ -1566,12 +1652,12 @@
       </c>
       <c r="R24" s="29"/>
       <c r="S24" s="30">
-        <f t="shared" ref="S24:U24" si="0">Q24/2</f>
+        <f t="shared" ref="S24:U24" si="2">Q24/2</f>
         <v>6.25E-2</v>
       </c>
       <c r="T24" s="29"/>
       <c r="U24" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
       <c r="V24" s="29"/>
@@ -1588,7 +1674,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:43" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>7.4703499999999998</v>
+      </c>
+      <c r="F25" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G25" s="15">
+        <v>7.4703499999999998</v>
+      </c>
+      <c r="H25" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="I25" s="15">
+        <v>7.4703499999999998</v>
+      </c>
+      <c r="J25" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="K25" s="15">
+        <v>7.4703499999999998</v>
+      </c>
       <c r="N25" s="24"/>
       <c r="O25" s="22" t="s">
         <v>10</v>
@@ -1664,6 +1777,33 @@
       </c>
     </row>
     <row r="26" spans="3:43" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="25">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="E26" s="14">
+        <v>11.262700000000001</v>
+      </c>
+      <c r="F26" s="13">
+        <v>18.75</v>
+      </c>
+      <c r="G26" s="15">
+        <v>11.262700000000001</v>
+      </c>
+      <c r="H26" s="13">
+        <v>18.75</v>
+      </c>
+      <c r="I26" s="15">
+        <v>11.262700000000001</v>
+      </c>
+      <c r="J26" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="K26" s="15">
+        <v>11.262700000000001</v>
+      </c>
       <c r="N26" s="25">
         <v>3</v>
       </c>
@@ -1748,6 +1888,33 @@
       </c>
     </row>
     <row r="27" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="C27" s="25">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1661.07</v>
+      </c>
+      <c r="F27" s="13">
+        <v>21.875</v>
+      </c>
+      <c r="G27" s="15">
+        <v>20.785299999999999</v>
+      </c>
+      <c r="H27" s="13">
+        <v>21.875</v>
+      </c>
+      <c r="I27" s="15">
+        <v>14.2431</v>
+      </c>
+      <c r="J27" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="K27" s="15">
+        <v>14.2431</v>
+      </c>
       <c r="N27" s="25">
         <v>4</v>
       </c>
@@ -1776,7 +1943,34 @@
         <v>0.92743100000000001</v>
       </c>
     </row>
-    <row r="28" spans="3:43" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="26">
+        <v>6</v>
+      </c>
+      <c r="D28" s="18">
+        <v>20.3125</v>
+      </c>
+      <c r="E28" s="18">
+        <v>20.3125</v>
+      </c>
+      <c r="F28" s="17">
+        <v>20.3125</v>
+      </c>
+      <c r="G28" s="20">
+        <v>10.1652</v>
+      </c>
+      <c r="H28" s="17">
+        <v>20.3125</v>
+      </c>
+      <c r="I28" s="20">
+        <v>20.3125</v>
+      </c>
+      <c r="J28" s="18">
+        <v>20.3125</v>
+      </c>
+      <c r="K28" s="20">
+        <v>14.477600000000001</v>
+      </c>
       <c r="N28" s="25">
         <v>5</v>
       </c>
@@ -1845,7 +2039,12 @@
         <v>22.243354381500001</v>
       </c>
     </row>
-    <row r="32" spans="3:43" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O32" t="s">
         <v>6</v>
       </c>
@@ -1853,8 +2052,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="30">
+        <f>D33/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30">
+        <f t="shared" ref="H33" si="3">F33/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="28">
+        <f t="shared" ref="J33" si="4">H33/2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="24"/>
+      <c r="D34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="N34" s="27" t="s">
         <v>0</v>
       </c>
@@ -1868,17 +2115,44 @@
       </c>
       <c r="R34" s="29"/>
       <c r="S34" s="28">
-        <f t="shared" ref="S34" si="1">Q34/2</f>
+        <f t="shared" ref="S34" si="5">Q34/2</f>
         <v>6.25E-2</v>
       </c>
       <c r="T34" s="29"/>
       <c r="U34" s="28">
-        <f t="shared" ref="U34" si="2">S34/2</f>
+        <f t="shared" ref="U34" si="6">S34/2</f>
         <v>3.125E-2</v>
       </c>
       <c r="V34" s="29"/>
     </row>
-    <row r="35" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:22" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="25">
+        <v>3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="E35" s="14">
+        <v>7.4720800000000001</v>
+      </c>
+      <c r="F35" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G35" s="15">
+        <v>7.4708100000000002</v>
+      </c>
+      <c r="H35" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="I35" s="15">
+        <v>7.4704800000000002</v>
+      </c>
+      <c r="J35" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="K35" s="15">
+        <v>7.4703900000000001</v>
+      </c>
       <c r="N35" s="24"/>
       <c r="O35" s="22" t="s">
         <v>10</v>
@@ -1905,7 +2179,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="14:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="25">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="E36" s="14">
+        <v>11.2691</v>
+      </c>
+      <c r="F36" s="13">
+        <v>18.75</v>
+      </c>
+      <c r="G36" s="15">
+        <v>11.2644</v>
+      </c>
+      <c r="H36" s="13">
+        <v>18.75</v>
+      </c>
+      <c r="I36" s="15">
+        <v>11.263199999999999</v>
+      </c>
+      <c r="J36" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="K36" s="15">
+        <v>11.2629</v>
+      </c>
       <c r="N36" s="25">
         <v>3</v>
       </c>
@@ -1934,7 +2235,34 @@
         <v>0.33341399999999999</v>
       </c>
     </row>
-    <row r="37" spans="14:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C37" s="25">
+        <v>5</v>
+      </c>
+      <c r="D37" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="E37" s="14">
+        <v>14.263999999999999</v>
+      </c>
+      <c r="F37" s="41">
+        <v>21.875</v>
+      </c>
+      <c r="G37" s="36">
+        <v>14.2483</v>
+      </c>
+      <c r="H37" s="13">
+        <v>21.875</v>
+      </c>
+      <c r="I37" s="15">
+        <v>14.244400000000001</v>
+      </c>
+      <c r="J37" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="K37" s="15">
+        <v>14.2439</v>
+      </c>
       <c r="N37" s="25">
         <v>4</v>
       </c>
@@ -1963,7 +2291,34 @@
         <v>0.92746399999999996</v>
       </c>
     </row>
-    <row r="38" spans="14:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="26">
+        <v>6</v>
+      </c>
+      <c r="D38" s="18">
+        <v>20.3125</v>
+      </c>
+      <c r="E38" s="18">
+        <v>14.520799999999999</v>
+      </c>
+      <c r="F38" s="42">
+        <v>20.3125</v>
+      </c>
+      <c r="G38" s="38">
+        <v>14.4885</v>
+      </c>
+      <c r="H38" s="17">
+        <v>20.3125</v>
+      </c>
+      <c r="I38" s="20">
+        <v>14.480399999999999</v>
+      </c>
+      <c r="J38" s="18">
+        <v>20.3125</v>
+      </c>
+      <c r="K38" s="20">
+        <v>14.478400000000001</v>
+      </c>
       <c r="N38" s="25">
         <v>5</v>
       </c>
@@ -1992,7 +2347,9 @@
         <v>1.8541399999999999</v>
       </c>
     </row>
-    <row r="39" spans="14:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="N39" s="26">
         <v>6</v>
       </c>
@@ -2020,6 +2377,14 @@
       <c r="V39" s="20">
         <v>2.4222700000000001</v>
       </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
